--- a/Table/LevelUpReward.xlsx
+++ b/Table/LevelUpReward.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="_LevelUpReward 정보" sheetId="2" r:id="rId1"/>
@@ -171,7 +171,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="38">
   <si>
     <t>Index</t>
   </si>
@@ -262,10 +262,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Active</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Use</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -275,29 +271,50 @@
   </si>
   <si>
     <t>3레벨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2레벨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>eLevelUpReward</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2레벨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2레벨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>3레벨</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>3레벨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3레벨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3레벨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>4레벨</t>
-  </si>
-  <si>
-    <t>5레벨</t>
-  </si>
-  <si>
-    <t>6레벨</t>
-  </si>
-  <si>
-    <t>7레벨</t>
-  </si>
-  <si>
-    <t>2레벨</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>eLevelUpReward</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4레벨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4레벨</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -749,7 +766,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
@@ -826,7 +843,7 @@
         <v>17</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.3">
@@ -865,13 +882,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E24" sqref="E24"/>
+      <selection pane="bottomRight" activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -914,7 +931,7 @@
         <v>1001</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C2" s="6">
         <v>1001</v>
@@ -923,7 +940,7 @@
         <v>22</v>
       </c>
       <c r="E2" s="6">
-        <v>0</v>
+        <v>1001</v>
       </c>
       <c r="F2" s="6">
         <v>2000</v>
@@ -934,16 +951,16 @@
         <v>1002</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C3" s="6">
         <v>1001</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E3" s="6">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F3" s="6">
         <v>2000</v>
@@ -960,10 +977,10 @@
         <v>1001</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E4" s="6">
-        <v>0</v>
+        <v>1006</v>
       </c>
       <c r="F4" s="6">
         <v>2000</v>
@@ -974,16 +991,16 @@
         <v>1004</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C5" s="6">
         <v>1001</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E5" s="6">
-        <v>0</v>
+        <v>1001</v>
       </c>
       <c r="F5" s="6">
         <v>2000</v>
@@ -994,16 +1011,16 @@
         <v>1005</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C6" s="6">
         <v>1001</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E6" s="6">
-        <v>0</v>
+        <v>2001</v>
       </c>
       <c r="F6" s="6">
         <v>2000</v>
@@ -1014,7 +1031,7 @@
         <v>1011</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C7" s="6">
         <v>1011</v>
@@ -1023,7 +1040,7 @@
         <v>22</v>
       </c>
       <c r="E7" s="6">
-        <v>0</v>
+        <v>1001</v>
       </c>
       <c r="F7" s="6">
         <v>2000</v>
@@ -1034,16 +1051,16 @@
         <v>1012</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C8" s="6">
         <v>1011</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E8" s="6">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F8" s="6">
         <v>2000</v>
@@ -1054,16 +1071,16 @@
         <v>1013</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C9" s="6">
         <v>1011</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E9" s="6">
-        <v>0</v>
+        <v>1006</v>
       </c>
       <c r="F9" s="6">
         <v>2000</v>
@@ -1074,16 +1091,16 @@
         <v>1014</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C10" s="6">
         <v>1011</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E10" s="6">
-        <v>0</v>
+        <v>1001</v>
       </c>
       <c r="F10" s="6">
         <v>2000</v>
@@ -1094,18 +1111,118 @@
         <v>1015</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C11" s="6">
         <v>1011</v>
       </c>
       <c r="D11" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" s="6">
+        <v>2001</v>
+      </c>
+      <c r="F11" s="6">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="6">
+        <v>1021</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="6">
+        <v>1021</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12" s="6">
+        <v>1001</v>
+      </c>
+      <c r="F12" s="6">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="6">
+        <v>1022</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="6">
+        <v>1021</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13" s="6">
+        <v>10</v>
+      </c>
+      <c r="F13" s="6">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="6">
+        <v>1023</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" s="6">
+        <v>1021</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E14" s="6">
+        <v>1006</v>
+      </c>
+      <c r="F14" s="6">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="6">
+        <v>1024</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" s="6">
+        <v>1021</v>
+      </c>
+      <c r="D15" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E11" s="6">
-        <v>0</v>
-      </c>
-      <c r="F11" s="6">
+      <c r="E15" s="6">
+        <v>1001</v>
+      </c>
+      <c r="F15" s="6">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="6">
+        <v>1025</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" s="6">
+        <v>1021</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16" s="6">
+        <v>2001</v>
+      </c>
+      <c r="F16" s="6">
         <v>2000</v>
       </c>
     </row>

--- a/Table/LevelUpReward.xlsx
+++ b/Table/LevelUpReward.xlsx
@@ -888,7 +888,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E20" sqref="E20"/>
+      <selection pane="bottomRight" activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -980,7 +980,7 @@
         <v>23</v>
       </c>
       <c r="E4" s="6">
-        <v>1006</v>
+        <v>2001</v>
       </c>
       <c r="F4" s="6">
         <v>2000</v>
@@ -1080,7 +1080,7 @@
         <v>23</v>
       </c>
       <c r="E9" s="6">
-        <v>1006</v>
+        <v>2001</v>
       </c>
       <c r="F9" s="6">
         <v>2000</v>
@@ -1180,7 +1180,7 @@
         <v>23</v>
       </c>
       <c r="E14" s="6">
-        <v>1006</v>
+        <v>2001</v>
       </c>
       <c r="F14" s="6">
         <v>2000</v>
